--- a/services_each_sheet.xlsx
+++ b/services_each_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29480" windowHeight="12540" firstSheet="4" activeTab="1"/>
+    <workbookView windowWidth="18100" windowHeight="12540" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="funeral" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="188">
   <si>
     <t>Level1</t>
   </si>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1930,7 +1930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +1940,11 @@
       <c r="C2">
         <v>750</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="G2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1954,8 +1957,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1968,8 +1974,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1982,8 +1991,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1996,8 +2008,11 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2010,8 +2025,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2023,6 +2041,9 @@
       </c>
       <c r="D8" t="s">
         <v>6</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" ht="20.4" spans="1:9">
@@ -2156,8 +2177,8 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2179,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2195,8 +2216,11 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2236,11 @@
       <c r="E3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2229,8 +2256,11 @@
       <c r="E4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -2246,8 +2276,11 @@
       <c r="E5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2263,8 +2296,11 @@
       <c r="E6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2280,8 +2316,11 @@
       <c r="E7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -2297,8 +2336,11 @@
       <c r="E8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2314,8 +2356,11 @@
       <c r="E9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="H9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2327,6 +2372,9 @@
       </c>
       <c r="D10">
         <v>2500</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2434,10 +2482,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2507,277 +2555,364 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>180</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>500</v>
+      </c>
+      <c r="H8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>140</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D10">
+        <v>160</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>500</v>
+      </c>
+      <c r="H12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
       </c>
       <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>960</v>
+      </c>
+      <c r="H14">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="D13">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" ht="84" spans="1:8">
-      <c r="A15" s="4" t="s">
+      <c r="H16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" ht="84" spans="1:8">
+      <c r="A18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" ht="51" spans="1:8">
-      <c r="A16" s="4" t="s">
+    <row r="19" ht="51" spans="1:8">
+      <c r="A19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" ht="68" spans="1:8">
-      <c r="A17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" ht="68" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" ht="68" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" ht="51" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" ht="68" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" ht="68" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" ht="68" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" ht="51" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" ht="68" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" ht="68" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2790,13 +2925,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2809,7 +2944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -2825,8 +2960,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2842,8 +2980,11 @@
       <c r="E3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -2859,8 +3000,11 @@
       <c r="E4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -2872,6 +3016,9 @@
       </c>
       <c r="D5" t="s">
         <v>118</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2883,13 +3030,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -2899,7 +3046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:4">
+    <row r="2" ht="34" spans="1:6">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2909,8 +3056,11 @@
       <c r="D2" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" ht="101" spans="1:5">
+      <c r="F2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="101" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>125</v>
       </c>
@@ -2924,8 +3074,11 @@
       <c r="E3" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" ht="34" spans="1:5">
+      <c r="F3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" ht="34" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>128</v>
       </c>
@@ -2939,8 +3092,11 @@
       <c r="E4" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" ht="51" spans="1:5">
+      <c r="F4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>131</v>
       </c>
@@ -2954,8 +3110,11 @@
       <c r="E5" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" ht="68" spans="1:5">
+      <c r="F5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" ht="68" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
@@ -2968,6 +3127,9 @@
       </c>
       <c r="E6" s="4" t="s">
         <v>130</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2979,13 +3141,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -2995,116 +3157,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>137</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>138</v>
       </c>
       <c r="B3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>139</v>
       </c>
       <c r="B4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>140</v>
       </c>
       <c r="B5">
         <v>1500</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>141</v>
       </c>
       <c r="B6">
         <v>2500</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>142</v>
       </c>
       <c r="B7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>143</v>
       </c>
       <c r="B8">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>144</v>
       </c>
       <c r="B9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>145</v>
       </c>
       <c r="B10">
         <v>2500</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>146</v>
       </c>
       <c r="B11">
         <v>7500</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>147</v>
       </c>
       <c r="B12">
         <v>1250</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>148</v>
       </c>
       <c r="B13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>149</v>
       </c>
       <c r="B14">
         <v>2500</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>150</v>
       </c>
       <c r="B15">
         <v>2000</v>
+      </c>
+      <c r="D15">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3116,13 +3320,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -3132,92 +3336,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>151</v>
       </c>
       <c r="B2">
         <v>1200</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>152</v>
       </c>
       <c r="B3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>153</v>
       </c>
       <c r="B4">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>154</v>
       </c>
       <c r="B5">
         <v>3000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>155</v>
       </c>
       <c r="B6">
         <v>600</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>156</v>
       </c>
       <c r="B7">
         <v>2400</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>157</v>
       </c>
       <c r="B8">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>158</v>
       </c>
       <c r="B9">
         <v>1500</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>159</v>
       </c>
       <c r="B10">
         <v>1200</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>160</v>
       </c>
       <c r="B11">
         <v>2400</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>161</v>
       </c>
       <c r="B12">
         <v>2400</v>
+      </c>
+      <c r="D12">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/services_each_sheet.xlsx
+++ b/services_each_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18100" windowHeight="12540" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="18100" windowHeight="12540" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="funeral" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="vaccination" sheetId="5" r:id="rId5"/>
     <sheet name="inspection" sheetId="6" r:id="rId6"/>
     <sheet name="treatment" sheetId="7" r:id="rId7"/>
-    <sheet name="surgery" sheetId="8" r:id="rId8"/>
+    <sheet name="surgery_private" sheetId="8" r:id="rId8"/>
+    <sheet name="surgery_public" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="188">
   <si>
     <t>Level1</t>
   </si>
@@ -2175,14 +2176,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
+    <col min="6" max="6" width="12.6875"/>
+    <col min="9" max="9" width="12.6875"/>
     <col min="11" max="11" width="12.6875"/>
   </cols>
   <sheetData>
@@ -2320,7 +2323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -2339,8 +2342,12 @@
       <c r="H8">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <f>200/80</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2359,8 +2366,12 @@
       <c r="H9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <f>125/50</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2375,6 +2386,10 @@
       </c>
       <c r="H10">
         <v>1000</v>
+      </c>
+      <c r="I10">
+        <f>875/2.5</f>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2482,10 +2497,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2504,7 +2519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2520,8 +2535,11 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2537,8 +2555,11 @@
       <c r="E3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2553,6 +2574,9 @@
       </c>
       <c r="E4" t="s">
         <v>51</v>
+      </c>
+      <c r="H4">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2560,76 +2584,76 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="H6">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>500</v>
+        <v>180</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>250</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2637,282 +2661,222 @@
         <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>140</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="H9">
-        <v>70</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D10">
-        <v>160</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H10">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>180</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
+        <v>960</v>
       </c>
       <c r="H11">
-        <v>90</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D12">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="H12">
-        <v>250</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
       </c>
       <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" ht="84" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" ht="51" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" ht="68" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" ht="68" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" ht="68" spans="1:4">
+      <c r="A19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D13">
-        <v>80</v>
-      </c>
-      <c r="H13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14">
-        <v>960</v>
-      </c>
-      <c r="H14">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15">
-        <v>60</v>
-      </c>
-      <c r="H15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16">
-        <v>200</v>
-      </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" ht="84" spans="1:8">
-      <c r="A18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" ht="51" spans="1:8">
-      <c r="A19" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="B19" s="4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" ht="68" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" ht="51" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="68" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" ht="68" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" ht="51" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" ht="68" spans="1:4">
-      <c r="A24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" ht="68" spans="1:4">
-      <c r="A25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3030,13 +2994,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -3046,7 +3010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:6">
+    <row r="2" ht="34" spans="1:7">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -3057,10 +3021,13 @@
         <v>124</v>
       </c>
       <c r="F2">
+        <v>600</v>
+      </c>
+      <c r="G2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" ht="101" spans="1:6">
+    <row r="3" ht="101" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>125</v>
       </c>
@@ -3075,10 +3042,13 @@
         <v>127</v>
       </c>
       <c r="F3">
+        <v>900</v>
+      </c>
+      <c r="G3">
         <v>400</v>
       </c>
     </row>
-    <row r="4" ht="34" spans="1:6">
+    <row r="4" ht="34" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>128</v>
       </c>
@@ -3093,10 +3063,13 @@
         <v>130</v>
       </c>
       <c r="F4">
+        <v>800</v>
+      </c>
+      <c r="G4">
         <v>400</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="1:6">
+    <row r="5" ht="51" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>131</v>
       </c>
@@ -3111,10 +3084,13 @@
         <v>133</v>
       </c>
       <c r="F5">
+        <v>800</v>
+      </c>
+      <c r="G5">
         <v>400</v>
       </c>
     </row>
-    <row r="6" ht="68" spans="1:6">
+    <row r="6" ht="68" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
@@ -3129,6 +3105,9 @@
         <v>130</v>
       </c>
       <c r="F6">
+        <v>800</v>
+      </c>
+      <c r="G6">
         <v>400</v>
       </c>
     </row>
@@ -3144,7 +3123,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -3322,8 +3301,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -3468,8 +3447,8 @@
   <sheetPr/>
   <dimension ref="A1:AH58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6499,4 +6478,2826 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z40"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:Y1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" t="s">
+        <v>162</v>
+      </c>
+      <c r="V1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>0.05</v>
+      </c>
+      <c r="D2">
+        <v>0.005</v>
+      </c>
+      <c r="E2">
+        <v>0.001</v>
+      </c>
+      <c r="F2">
+        <v>0.0005</v>
+      </c>
+      <c r="G2">
+        <v>0.0002</v>
+      </c>
+      <c r="I2">
+        <f>$B2*C2</f>
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <f>$B2*D2</f>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f>$B2*E2</f>
+        <v>0.4</v>
+      </c>
+      <c r="L2">
+        <f>$B2*F2</f>
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <f>$B2*G2</f>
+        <v>0.08</v>
+      </c>
+      <c r="O2" cm="1">
+        <f t="array" ref="O2">SUMPRODUCT($B22:$Z22,$B$40:$Z$40)*C2</f>
+        <v>210.45</v>
+      </c>
+      <c r="P2" cm="1">
+        <f t="array" ref="P2">SUMPRODUCT($B22:$Z22,$B$40:$Z$40)*D2</f>
+        <v>21.045</v>
+      </c>
+      <c r="Q2" cm="1">
+        <f t="array" ref="Q2">SUMPRODUCT($B22:$Z22,$B$40:$Z$40)*E2</f>
+        <v>4.209</v>
+      </c>
+      <c r="R2" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT($B22:$Z22,$B$40:$Z$40)*F2</f>
+        <v>2.1045</v>
+      </c>
+      <c r="S2" cm="1">
+        <f t="array" ref="S2">SUMPRODUCT($B22:$Z22,$B$40:$Z$40)*G2</f>
+        <v>0.8418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.005</v>
+      </c>
+      <c r="E3">
+        <v>0.001</v>
+      </c>
+      <c r="F3">
+        <v>0.0005</v>
+      </c>
+      <c r="G3">
+        <v>0.0002</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I19" si="0">$B3*C3</f>
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <f>$B3*D3</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>$B3*E3</f>
+        <v>0.8</v>
+      </c>
+      <c r="L3">
+        <f>$B3*F3</f>
+        <v>0.4</v>
+      </c>
+      <c r="M3">
+        <f>$B3*G3</f>
+        <v>0.16</v>
+      </c>
+      <c r="O3" cm="1">
+        <f t="array" ref="O3">SUMPRODUCT($B23:$Z23,$B$40:$Z$40)*C3</f>
+        <v>228.7</v>
+      </c>
+      <c r="P3" cm="1">
+        <f t="array" ref="P3">SUMPRODUCT($B23:$Z23,$B$40:$Z$40)*D3</f>
+        <v>22.87</v>
+      </c>
+      <c r="Q3" cm="1">
+        <f t="array" ref="Q3">SUMPRODUCT($B23:$Z23,$B$40:$Z$40)*E3</f>
+        <v>4.574</v>
+      </c>
+      <c r="R3" cm="1">
+        <f t="array" ref="R3">SUMPRODUCT($B23:$Z23,$B$40:$Z$40)*F3</f>
+        <v>2.287</v>
+      </c>
+      <c r="S3" cm="1">
+        <f t="array" ref="S3">SUMPRODUCT($B23:$Z23,$B$40:$Z$40)*G3</f>
+        <v>0.9148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>0.001</v>
+      </c>
+      <c r="D4">
+        <v>0.003</v>
+      </c>
+      <c r="E4">
+        <v>0.002</v>
+      </c>
+      <c r="F4">
+        <v>0.001</v>
+      </c>
+      <c r="G4">
+        <v>0.0005</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>$B4*D4</f>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f>$B4*E4</f>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f>$B4*F4</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>$B4*G4</f>
+        <v>0.5</v>
+      </c>
+      <c r="O4" cm="1">
+        <f t="array" ref="O4">SUMPRODUCT($B24:$Z24,$B$40:$Z$40)*C4</f>
+        <v>5.015</v>
+      </c>
+      <c r="P4" cm="1">
+        <f t="array" ref="P4">SUMPRODUCT($B24:$Z24,$B$40:$Z$40)*D4</f>
+        <v>15.045</v>
+      </c>
+      <c r="Q4" cm="1">
+        <f t="array" ref="Q4">SUMPRODUCT($B24:$Z24,$B$40:$Z$40)*E4</f>
+        <v>10.03</v>
+      </c>
+      <c r="R4" cm="1">
+        <f t="array" ref="R4">SUMPRODUCT($B24:$Z24,$B$40:$Z$40)*F4</f>
+        <v>5.015</v>
+      </c>
+      <c r="S4" cm="1">
+        <f t="array" ref="S4">SUMPRODUCT($B24:$Z24,$B$40:$Z$40)*G4</f>
+        <v>2.5075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>0.0005</v>
+      </c>
+      <c r="D5">
+        <v>0.002</v>
+      </c>
+      <c r="E5">
+        <v>0.005</v>
+      </c>
+      <c r="F5">
+        <v>0.008</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <f>$B5*D5</f>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f>$B5*E5</f>
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f>$B5*F5</f>
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <f>$B5*G5</f>
+        <v>10</v>
+      </c>
+      <c r="O5" cm="1">
+        <f t="array" ref="O5">SUMPRODUCT($B25:$Z25,$B$40:$Z$40)*C5</f>
+        <v>2.5175</v>
+      </c>
+      <c r="P5" cm="1">
+        <f t="array" ref="P5">SUMPRODUCT($B25:$Z25,$B$40:$Z$40)*D5</f>
+        <v>10.07</v>
+      </c>
+      <c r="Q5" cm="1">
+        <f t="array" ref="Q5">SUMPRODUCT($B25:$Z25,$B$40:$Z$40)*E5</f>
+        <v>25.175</v>
+      </c>
+      <c r="R5" cm="1">
+        <f t="array" ref="R5">SUMPRODUCT($B25:$Z25,$B$40:$Z$40)*F5</f>
+        <v>40.28</v>
+      </c>
+      <c r="S5" cm="1">
+        <f t="array" ref="S5">SUMPRODUCT($B25:$Z25,$B$40:$Z$40)*G5</f>
+        <v>50.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>0.0002</v>
+      </c>
+      <c r="D6">
+        <v>0.001</v>
+      </c>
+      <c r="E6">
+        <v>0.002</v>
+      </c>
+      <c r="F6">
+        <v>0.002</v>
+      </c>
+      <c r="G6">
+        <v>0.003</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <f>$B6*D6</f>
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <f>$B6*E6</f>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>$B6*F6</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>$B6*G6</f>
+        <v>1.5</v>
+      </c>
+      <c r="O6" cm="1">
+        <f t="array" ref="O6">SUMPRODUCT($B26:$Z26,$B$40:$Z$40)*C6</f>
+        <v>1.007</v>
+      </c>
+      <c r="P6" cm="1">
+        <f t="array" ref="P6">SUMPRODUCT($B26:$Z26,$B$40:$Z$40)*D6</f>
+        <v>5.035</v>
+      </c>
+      <c r="Q6" cm="1">
+        <f t="array" ref="Q6">SUMPRODUCT($B26:$Z26,$B$40:$Z$40)*E6</f>
+        <v>10.07</v>
+      </c>
+      <c r="R6" cm="1">
+        <f t="array" ref="R6">SUMPRODUCT($B26:$Z26,$B$40:$Z$40)*F6</f>
+        <v>10.07</v>
+      </c>
+      <c r="S6" cm="1">
+        <f t="array" ref="S6">SUMPRODUCT($B26:$Z26,$B$40:$Z$40)*G6</f>
+        <v>15.105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>0.0005</v>
+      </c>
+      <c r="D7">
+        <v>0.002</v>
+      </c>
+      <c r="E7">
+        <v>0.003</v>
+      </c>
+      <c r="F7">
+        <v>0.004</v>
+      </c>
+      <c r="G7">
+        <v>0.006</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>$B7*D7</f>
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f>$B7*E7</f>
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <f>$B7*F7</f>
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f>$B7*G7</f>
+        <v>12</v>
+      </c>
+      <c r="O7" cm="1">
+        <f t="array" ref="O7">SUMPRODUCT($B27:$Z27,$B$40:$Z$40)*C7</f>
+        <v>2.6865</v>
+      </c>
+      <c r="P7" cm="1">
+        <f t="array" ref="P7">SUMPRODUCT($B27:$Z27,$B$40:$Z$40)*D7</f>
+        <v>10.746</v>
+      </c>
+      <c r="Q7" cm="1">
+        <f t="array" ref="Q7">SUMPRODUCT($B27:$Z27,$B$40:$Z$40)*E7</f>
+        <v>16.119</v>
+      </c>
+      <c r="R7" cm="1">
+        <f t="array" ref="R7">SUMPRODUCT($B27:$Z27,$B$40:$Z$40)*F7</f>
+        <v>21.492</v>
+      </c>
+      <c r="S7" cm="1">
+        <f t="array" ref="S7">SUMPRODUCT($B27:$Z27,$B$40:$Z$40)*G7</f>
+        <v>32.238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8">
+        <v>600</v>
+      </c>
+      <c r="C8">
+        <v>0.005</v>
+      </c>
+      <c r="D8">
+        <v>0.01</v>
+      </c>
+      <c r="E8">
+        <v>0.015</v>
+      </c>
+      <c r="F8">
+        <v>0.02</v>
+      </c>
+      <c r="G8">
+        <v>0.025</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <f>$B8*D8</f>
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <f>$B8*E8</f>
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <f>$B8*F8</f>
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <f>$B8*G8</f>
+        <v>15</v>
+      </c>
+      <c r="O8" cm="1">
+        <f t="array" ref="O8">SUMPRODUCT($B28:$Z28,$B$40:$Z$40)*C8</f>
+        <v>18.295</v>
+      </c>
+      <c r="P8" cm="1">
+        <f t="array" ref="P8">SUMPRODUCT($B28:$Z28,$B$40:$Z$40)*D8</f>
+        <v>36.59</v>
+      </c>
+      <c r="Q8" cm="1">
+        <f t="array" ref="Q8">SUMPRODUCT($B28:$Z28,$B$40:$Z$40)*E8</f>
+        <v>54.885</v>
+      </c>
+      <c r="R8" cm="1">
+        <f t="array" ref="R8">SUMPRODUCT($B28:$Z28,$B$40:$Z$40)*F8</f>
+        <v>73.18</v>
+      </c>
+      <c r="S8" cm="1">
+        <f t="array" ref="S8">SUMPRODUCT($B28:$Z28,$B$40:$Z$40)*G8</f>
+        <v>91.475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9">
+        <v>1800</v>
+      </c>
+      <c r="C9">
+        <v>0.001</v>
+      </c>
+      <c r="D9">
+        <v>0.002</v>
+      </c>
+      <c r="E9">
+        <v>0.003</v>
+      </c>
+      <c r="F9">
+        <v>0.004</v>
+      </c>
+      <c r="G9">
+        <v>0.005</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="J9">
+        <f>$B9*D9</f>
+        <v>3.6</v>
+      </c>
+      <c r="K9">
+        <f>$B9*E9</f>
+        <v>5.4</v>
+      </c>
+      <c r="L9">
+        <f>$B9*F9</f>
+        <v>7.2</v>
+      </c>
+      <c r="M9">
+        <f>$B9*G9</f>
+        <v>9</v>
+      </c>
+      <c r="O9" cm="1">
+        <f t="array" ref="O9">SUMPRODUCT($B29:$Z29,$B$40:$Z$40)*C9</f>
+        <v>4.41</v>
+      </c>
+      <c r="P9" cm="1">
+        <f t="array" ref="P9">SUMPRODUCT($B29:$Z29,$B$40:$Z$40)*D9</f>
+        <v>8.82</v>
+      </c>
+      <c r="Q9" cm="1">
+        <f t="array" ref="Q9">SUMPRODUCT($B29:$Z29,$B$40:$Z$40)*E9</f>
+        <v>13.23</v>
+      </c>
+      <c r="R9" cm="1">
+        <f t="array" ref="R9">SUMPRODUCT($B29:$Z29,$B$40:$Z$40)*F9</f>
+        <v>17.64</v>
+      </c>
+      <c r="S9" cm="1">
+        <f t="array" ref="S9">SUMPRODUCT($B29:$Z29,$B$40:$Z$40)*G9</f>
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10">
+        <v>5000</v>
+      </c>
+      <c r="C10">
+        <v>0.001</v>
+      </c>
+      <c r="D10">
+        <v>0.002</v>
+      </c>
+      <c r="E10">
+        <v>0.003</v>
+      </c>
+      <c r="F10">
+        <v>0.004</v>
+      </c>
+      <c r="G10">
+        <v>0.005</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f>$B10*D10</f>
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <f>$B10*E10</f>
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <f>$B10*F10</f>
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <f>$B10*G10</f>
+        <v>25</v>
+      </c>
+      <c r="O10" cm="1">
+        <f t="array" ref="O10">SUMPRODUCT($B30:$Z30,$B$40:$Z$40)*C10</f>
+        <v>5.653</v>
+      </c>
+      <c r="P10" cm="1">
+        <f t="array" ref="P10">SUMPRODUCT($B30:$Z30,$B$40:$Z$40)*D10</f>
+        <v>11.306</v>
+      </c>
+      <c r="Q10" cm="1">
+        <f t="array" ref="Q10">SUMPRODUCT($B30:$Z30,$B$40:$Z$40)*E10</f>
+        <v>16.959</v>
+      </c>
+      <c r="R10" cm="1">
+        <f t="array" ref="R10">SUMPRODUCT($B30:$Z30,$B$40:$Z$40)*F10</f>
+        <v>22.612</v>
+      </c>
+      <c r="S10" cm="1">
+        <f t="array" ref="S10">SUMPRODUCT($B30:$Z30,$B$40:$Z$40)*G10</f>
+        <v>28.265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>0.0005</v>
+      </c>
+      <c r="D11">
+        <v>0.001</v>
+      </c>
+      <c r="E11">
+        <v>0.002</v>
+      </c>
+      <c r="F11">
+        <v>0.003</v>
+      </c>
+      <c r="G11">
+        <v>0.004</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <f>$B11*D11</f>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f>$B11*E11</f>
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <f>$B11*F11</f>
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <f>$B11*G11</f>
+        <v>4</v>
+      </c>
+      <c r="O11" cm="1">
+        <f t="array" ref="O11">SUMPRODUCT($B31:$Z31,$B$40:$Z$40)*C11</f>
+        <v>2.4225</v>
+      </c>
+      <c r="P11" cm="1">
+        <f t="array" ref="P11">SUMPRODUCT($B31:$Z31,$B$40:$Z$40)*D11</f>
+        <v>4.845</v>
+      </c>
+      <c r="Q11" cm="1">
+        <f t="array" ref="Q11">SUMPRODUCT($B31:$Z31,$B$40:$Z$40)*E11</f>
+        <v>9.69</v>
+      </c>
+      <c r="R11" cm="1">
+        <f t="array" ref="R11">SUMPRODUCT($B31:$Z31,$B$40:$Z$40)*F11</f>
+        <v>14.535</v>
+      </c>
+      <c r="S11" cm="1">
+        <f t="array" ref="S11">SUMPRODUCT($B31:$Z31,$B$40:$Z$40)*G11</f>
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>0.0003</v>
+      </c>
+      <c r="D12">
+        <v>0.001</v>
+      </c>
+      <c r="E12">
+        <v>0.001</v>
+      </c>
+      <c r="F12">
+        <v>0.002</v>
+      </c>
+      <c r="G12">
+        <v>0.003</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J12">
+        <f>$B12*D12</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f>$B12*E12</f>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f>$B12*F12</f>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f>$B12*G12</f>
+        <v>3</v>
+      </c>
+      <c r="O12" cm="1">
+        <f t="array" ref="O12">SUMPRODUCT($B32:$Z32,$B$40:$Z$40)*C12</f>
+        <v>1.2855</v>
+      </c>
+      <c r="P12" cm="1">
+        <f t="array" ref="P12">SUMPRODUCT($B32:$Z32,$B$40:$Z$40)*D12</f>
+        <v>4.285</v>
+      </c>
+      <c r="Q12" cm="1">
+        <f t="array" ref="Q12">SUMPRODUCT($B32:$Z32,$B$40:$Z$40)*E12</f>
+        <v>4.285</v>
+      </c>
+      <c r="R12" cm="1">
+        <f t="array" ref="R12">SUMPRODUCT($B32:$Z32,$B$40:$Z$40)*F12</f>
+        <v>8.57</v>
+      </c>
+      <c r="S12" cm="1">
+        <f t="array" ref="S12">SUMPRODUCT($B32:$Z32,$B$40:$Z$40)*G12</f>
+        <v>12.855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>0.0005</v>
+      </c>
+      <c r="D13">
+        <v>0.002</v>
+      </c>
+      <c r="E13">
+        <v>0.003</v>
+      </c>
+      <c r="F13">
+        <v>0.004</v>
+      </c>
+      <c r="G13">
+        <v>0.005</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <f>$B13*D13</f>
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f>$B13*E13</f>
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <f>$B13*F13</f>
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <f>$B13*G13</f>
+        <v>5</v>
+      </c>
+      <c r="O13" cm="1">
+        <f t="array" ref="O13">SUMPRODUCT($B33:$Z33,$B$40:$Z$40)*C13</f>
+        <v>2.0605</v>
+      </c>
+      <c r="P13" cm="1">
+        <f t="array" ref="P13">SUMPRODUCT($B33:$Z33,$B$40:$Z$40)*D13</f>
+        <v>8.242</v>
+      </c>
+      <c r="Q13" cm="1">
+        <f t="array" ref="Q13">SUMPRODUCT($B33:$Z33,$B$40:$Z$40)*E13</f>
+        <v>12.363</v>
+      </c>
+      <c r="R13" cm="1">
+        <f t="array" ref="R13">SUMPRODUCT($B33:$Z33,$B$40:$Z$40)*F13</f>
+        <v>16.484</v>
+      </c>
+      <c r="S13" cm="1">
+        <f t="array" ref="S13">SUMPRODUCT($B33:$Z33,$B$40:$Z$40)*G13</f>
+        <v>20.605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>0.0002</v>
+      </c>
+      <c r="D14">
+        <v>0.001</v>
+      </c>
+      <c r="E14">
+        <v>0.001</v>
+      </c>
+      <c r="F14">
+        <v>0.002</v>
+      </c>
+      <c r="G14">
+        <v>0.003</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J14">
+        <f>$B14*D14</f>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f>$B14*E14</f>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>$B14*F14</f>
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f>$B14*G14</f>
+        <v>3</v>
+      </c>
+      <c r="O14" cm="1">
+        <f t="array" ref="O14">SUMPRODUCT($B34:$Z34,$B$40:$Z$40)*C14</f>
+        <v>1.1966</v>
+      </c>
+      <c r="P14" cm="1">
+        <f t="array" ref="P14">SUMPRODUCT($B34:$Z34,$B$40:$Z$40)*D14</f>
+        <v>5.983</v>
+      </c>
+      <c r="Q14" cm="1">
+        <f t="array" ref="Q14">SUMPRODUCT($B34:$Z34,$B$40:$Z$40)*E14</f>
+        <v>5.983</v>
+      </c>
+      <c r="R14" cm="1">
+        <f t="array" ref="R14">SUMPRODUCT($B34:$Z34,$B$40:$Z$40)*F14</f>
+        <v>11.966</v>
+      </c>
+      <c r="S14" cm="1">
+        <f t="array" ref="S14">SUMPRODUCT($B34:$Z34,$B$40:$Z$40)*G14</f>
+        <v>17.949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <v>0.0003</v>
+      </c>
+      <c r="D15">
+        <v>0.001</v>
+      </c>
+      <c r="E15">
+        <v>0.002</v>
+      </c>
+      <c r="F15">
+        <v>0.003</v>
+      </c>
+      <c r="G15">
+        <v>0.004</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J15">
+        <f>$B15*D15</f>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f>$B15*E15</f>
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f>$B15*F15</f>
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <f>$B15*G15</f>
+        <v>4</v>
+      </c>
+      <c r="O15" cm="1">
+        <f t="array" ref="O15">SUMPRODUCT($B35:$Z35,$B$40:$Z$40)*C15</f>
+        <v>1.632</v>
+      </c>
+      <c r="P15" cm="1">
+        <f t="array" ref="P15">SUMPRODUCT($B35:$Z35,$B$40:$Z$40)*D15</f>
+        <v>5.44</v>
+      </c>
+      <c r="Q15" cm="1">
+        <f t="array" ref="Q15">SUMPRODUCT($B35:$Z35,$B$40:$Z$40)*E15</f>
+        <v>10.88</v>
+      </c>
+      <c r="R15" cm="1">
+        <f t="array" ref="R15">SUMPRODUCT($B35:$Z35,$B$40:$Z$40)*F15</f>
+        <v>16.32</v>
+      </c>
+      <c r="S15" cm="1">
+        <f t="array" ref="S15">SUMPRODUCT($B35:$Z35,$B$40:$Z$40)*G15</f>
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>0.0001</v>
+      </c>
+      <c r="D16">
+        <v>0.001</v>
+      </c>
+      <c r="E16">
+        <v>0.002</v>
+      </c>
+      <c r="F16">
+        <v>0.003</v>
+      </c>
+      <c r="G16">
+        <v>0.004</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J16">
+        <f>$B16*D16</f>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f>$B16*E16</f>
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f>$B16*F16</f>
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <f>$B16*G16</f>
+        <v>4</v>
+      </c>
+      <c r="O16" cm="1">
+        <f t="array" ref="O16">SUMPRODUCT($B36:$Z36,$B$40:$Z$40)*C16</f>
+        <v>0.5015</v>
+      </c>
+      <c r="P16" cm="1">
+        <f t="array" ref="P16">SUMPRODUCT($B36:$Z36,$B$40:$Z$40)*D16</f>
+        <v>5.015</v>
+      </c>
+      <c r="Q16" cm="1">
+        <f t="array" ref="Q16">SUMPRODUCT($B36:$Z36,$B$40:$Z$40)*E16</f>
+        <v>10.03</v>
+      </c>
+      <c r="R16" cm="1">
+        <f t="array" ref="R16">SUMPRODUCT($B36:$Z36,$B$40:$Z$40)*F16</f>
+        <v>15.045</v>
+      </c>
+      <c r="S16" cm="1">
+        <f t="array" ref="S16">SUMPRODUCT($B36:$Z36,$B$40:$Z$40)*G16</f>
+        <v>20.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17">
+        <v>0.0003</v>
+      </c>
+      <c r="D17">
+        <v>0.002</v>
+      </c>
+      <c r="E17">
+        <v>0.004</v>
+      </c>
+      <c r="F17">
+        <v>0.005</v>
+      </c>
+      <c r="G17">
+        <v>0.006</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="J17">
+        <f>$B17*D17</f>
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <f>$B17*E17</f>
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <f>$B17*F17</f>
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <f>$B17*G17</f>
+        <v>12</v>
+      </c>
+      <c r="O17" cm="1">
+        <f t="array" ref="O17">SUMPRODUCT($B37:$Z37,$B$40:$Z$40)*C17</f>
+        <v>1.9023</v>
+      </c>
+      <c r="P17" cm="1">
+        <f t="array" ref="P17">SUMPRODUCT($B37:$Z37,$B$40:$Z$40)*D17</f>
+        <v>12.682</v>
+      </c>
+      <c r="Q17" cm="1">
+        <f t="array" ref="Q17">SUMPRODUCT($B37:$Z37,$B$40:$Z$40)*E17</f>
+        <v>25.364</v>
+      </c>
+      <c r="R17" cm="1">
+        <f t="array" ref="R17">SUMPRODUCT($B37:$Z37,$B$40:$Z$40)*F17</f>
+        <v>31.705</v>
+      </c>
+      <c r="S17" cm="1">
+        <f t="array" ref="S17">SUMPRODUCT($B37:$Z37,$B$40:$Z$40)*G17</f>
+        <v>38.046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+      <c r="C18">
+        <v>0.0002</v>
+      </c>
+      <c r="D18">
+        <v>0.002</v>
+      </c>
+      <c r="E18">
+        <v>0.003</v>
+      </c>
+      <c r="F18">
+        <v>0.004</v>
+      </c>
+      <c r="G18">
+        <v>0.005</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="J18">
+        <f>$B18*D18</f>
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <f>$B18*E18</f>
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <f>$B18*F18</f>
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <f>$B18*G18</f>
+        <v>10</v>
+      </c>
+      <c r="O18" cm="1">
+        <f t="array" ref="O18">SUMPRODUCT($B38:$Z38,$B$40:$Z$40)*C18</f>
+        <v>1.0982</v>
+      </c>
+      <c r="P18" cm="1">
+        <f t="array" ref="P18">SUMPRODUCT($B38:$Z38,$B$40:$Z$40)*D18</f>
+        <v>10.982</v>
+      </c>
+      <c r="Q18" cm="1">
+        <f t="array" ref="Q18">SUMPRODUCT($B38:$Z38,$B$40:$Z$40)*E18</f>
+        <v>16.473</v>
+      </c>
+      <c r="R18" cm="1">
+        <f t="array" ref="R18">SUMPRODUCT($B38:$Z38,$B$40:$Z$40)*F18</f>
+        <v>21.964</v>
+      </c>
+      <c r="S18" cm="1">
+        <f t="array" ref="S18">SUMPRODUCT($B38:$Z38,$B$40:$Z$40)*G18</f>
+        <v>27.455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19">
+        <v>5000</v>
+      </c>
+      <c r="C19">
+        <v>0.0001</v>
+      </c>
+      <c r="D19">
+        <v>0.001</v>
+      </c>
+      <c r="E19">
+        <v>0.001</v>
+      </c>
+      <c r="F19">
+        <v>0.002</v>
+      </c>
+      <c r="G19">
+        <v>0.003</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <f>$B19*D19</f>
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <f>$B19*E19</f>
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <f>$B19*F19</f>
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <f>$B19*G19</f>
+        <v>15</v>
+      </c>
+      <c r="O19" cm="1">
+        <f t="array" ref="O19">SUMPRODUCT($B39:$Z39,$B$40:$Z$40)*C19</f>
+        <v>0.4097</v>
+      </c>
+      <c r="P19" cm="1">
+        <f t="array" ref="P19">SUMPRODUCT($B39:$Z39,$B$40:$Z$40)*D19</f>
+        <v>4.097</v>
+      </c>
+      <c r="Q19" cm="1">
+        <f t="array" ref="Q19">SUMPRODUCT($B39:$Z39,$B$40:$Z$40)*E19</f>
+        <v>4.097</v>
+      </c>
+      <c r="R19" cm="1">
+        <f t="array" ref="R19">SUMPRODUCT($B39:$Z39,$B$40:$Z$40)*F19</f>
+        <v>8.194</v>
+      </c>
+      <c r="S19" cm="1">
+        <f t="array" ref="S19">SUMPRODUCT($B39:$Z39,$B$40:$Z$40)*G19</f>
+        <v>12.291</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26">
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" t="s">
+        <v>161</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X30" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X31" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X33" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26">
+      <c r="B40">
+        <v>400</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>200</v>
+      </c>
+      <c r="E40">
+        <v>1000</v>
+      </c>
+      <c r="F40">
+        <v>200</v>
+      </c>
+      <c r="G40">
+        <v>800</v>
+      </c>
+      <c r="H40">
+        <v>500</v>
+      </c>
+      <c r="I40">
+        <v>500</v>
+      </c>
+      <c r="J40">
+        <v>400</v>
+      </c>
+      <c r="K40">
+        <v>800</v>
+      </c>
+      <c r="L40">
+        <v>800</v>
+      </c>
+      <c r="M40">
+        <v>1000</v>
+      </c>
+      <c r="N40">
+        <v>600</v>
+      </c>
+      <c r="O40">
+        <v>300</v>
+      </c>
+      <c r="P40">
+        <v>300</v>
+      </c>
+      <c r="Q40">
+        <v>500</v>
+      </c>
+      <c r="R40">
+        <v>400</v>
+      </c>
+      <c r="S40">
+        <v>300</v>
+      </c>
+      <c r="T40">
+        <v>400</v>
+      </c>
+      <c r="U40">
+        <v>500</v>
+      </c>
+      <c r="V40">
+        <v>1500</v>
+      </c>
+      <c r="W40">
+        <v>250</v>
+      </c>
+      <c r="X40">
+        <v>800</v>
+      </c>
+      <c r="Y40">
+        <v>500</v>
+      </c>
+      <c r="Z40">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>